--- a/exchange_rates.xlsx
+++ b/exchange_rates.xlsx
@@ -14,35 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="285">
-  <si>
-    <t>column_0</t>
-  </si>
-  <si>
-    <t>column_1</t>
-  </si>
-  <si>
-    <t>column_2</t>
-  </si>
-  <si>
-    <t>column_3</t>
-  </si>
-  <si>
-    <t>column_4</t>
-  </si>
-  <si>
-    <t>column_5</t>
-  </si>
-  <si>
-    <t>column_6</t>
-  </si>
-  <si>
-    <t>column_7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="281">
   <si>
     <t>CURRENCY</t>
   </si>
   <si>
+    <t>INDICES</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>Mid_Rate</t>
+  </si>
+  <si>
+    <t>BID_1</t>
+  </si>
+  <si>
+    <t>ASK_1</t>
+  </si>
+  <si>
+    <t>Mid_Rate_1</t>
+  </si>
+  <si>
     <t>INTERBANK RATE</t>
   </si>
   <si>
@@ -166,109 +163,103 @@
     <t>XAF</t>
   </si>
   <si>
-    <t>INDICES</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>BID</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>18.2283</t>
-  </si>
-  <si>
-    <t>1.2682</t>
-  </si>
-  <si>
-    <t>159.7900</t>
-  </si>
-  <si>
-    <t>25.6720</t>
-  </si>
-  <si>
-    <t>0.0736</t>
-  </si>
-  <si>
-    <t>0.8953</t>
+    <t>18.1438</t>
+  </si>
+  <si>
+    <t>1.2634</t>
+  </si>
+  <si>
+    <t>160.3900</t>
+  </si>
+  <si>
+    <t>25.7500</t>
+  </si>
+  <si>
+    <t>0.0735</t>
+  </si>
+  <si>
+    <t>0.8968</t>
   </si>
   <si>
     <t>1716.7300</t>
   </si>
   <si>
-    <t>0.6681</t>
-  </si>
-  <si>
-    <t>1.316820</t>
-  </si>
-  <si>
-    <t>63.2600</t>
-  </si>
-  <si>
-    <t>10.6138</t>
-  </si>
-  <si>
-    <t>10.5149</t>
-  </si>
-  <si>
-    <t>1.3657</t>
-  </si>
-  <si>
-    <t>1.0704</t>
-  </si>
-  <si>
-    <t>7.2662</t>
-  </si>
-  <si>
-    <t>83.4875</t>
-  </si>
-  <si>
-    <t>0.6115</t>
-  </si>
-  <si>
-    <t>6.9672</t>
-  </si>
-  <si>
-    <t>2315.6250</t>
-  </si>
-  <si>
-    <t>70.5600</t>
-  </si>
-  <si>
-    <t>36.7900</t>
-  </si>
-  <si>
-    <t>57.2915</t>
-  </si>
-  <si>
-    <t>18.2297</t>
-  </si>
-  <si>
-    <t>46.8800</t>
-  </si>
-  <si>
-    <t>4.7090</t>
+    <t>0.6664</t>
+  </si>
+  <si>
+    <t>1.314370</t>
+  </si>
+  <si>
+    <t>63.3100</t>
+  </si>
+  <si>
+    <t>10.6636</t>
+  </si>
+  <si>
+    <t>10.5645</t>
+  </si>
+  <si>
+    <t>1.3693</t>
+  </si>
+  <si>
+    <t>1.0694</t>
+  </si>
+  <si>
+    <t>7.2686</t>
+  </si>
+  <si>
+    <t>83.4850</t>
+  </si>
+  <si>
+    <t>0.6089</t>
+  </si>
+  <si>
+    <t>6.9741</t>
+  </si>
+  <si>
+    <t>2300.0600</t>
+  </si>
+  <si>
+    <t>70.9100</t>
+  </si>
+  <si>
+    <t>36.9100</t>
+  </si>
+  <si>
+    <t>57.3013</t>
+  </si>
+  <si>
+    <t>18.1457</t>
+  </si>
+  <si>
+    <t>47.2400</t>
+  </si>
+  <si>
+    <t>4.7170</t>
   </si>
   <si>
     <t>0.3975</t>
   </si>
   <si>
-    <t>48.3500</t>
-  </si>
-  <si>
-    <t>5.4511</t>
-  </si>
-  <si>
-    <t>2630.0000</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>128.0000</t>
+    <t>47.9800</t>
+  </si>
+  <si>
+    <t>5.5240</t>
+  </si>
+  <si>
+    <t>2605.0000</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>128.5000</t>
   </si>
   <si>
     <t>2.2150</t>
@@ -286,103 +277,100 @@
     <t>7.7495</t>
   </si>
   <si>
-    <t>909.0000</t>
-  </si>
-  <si>
-    <t>612.5900</t>
-  </si>
-  <si>
-    <t>ASK</t>
-  </si>
-  <si>
-    <t>18.2382</t>
-  </si>
-  <si>
-    <t>1.2686</t>
-  </si>
-  <si>
-    <t>159.8000</t>
-  </si>
-  <si>
-    <t>26.0050</t>
-  </si>
-  <si>
-    <t>0.0738</t>
-  </si>
-  <si>
-    <t>0.8954</t>
-  </si>
-  <si>
-    <t>1751.0000</t>
-  </si>
-  <si>
-    <t>0.6683</t>
-  </si>
-  <si>
-    <t>63.9400</t>
-  </si>
-  <si>
-    <t>10.6195</t>
-  </si>
-  <si>
-    <t>10.5190</t>
-  </si>
-  <si>
-    <t>1.3661</t>
-  </si>
-  <si>
-    <t>1.0708</t>
-  </si>
-  <si>
-    <t>7.2663</t>
-  </si>
-  <si>
-    <t>83.4975</t>
-  </si>
-  <si>
-    <t>0.6119</t>
-  </si>
-  <si>
-    <t>6.9682</t>
-  </si>
-  <si>
-    <t>2316.1250</t>
-  </si>
-  <si>
-    <t>70.7600</t>
-  </si>
-  <si>
-    <t>36.8100</t>
+    <t>910.5000</t>
+  </si>
+  <si>
+    <t>613.7100</t>
+  </si>
+  <si>
+    <t>18.1531</t>
+  </si>
+  <si>
+    <t>1.2635</t>
+  </si>
+  <si>
+    <t>160.4100</t>
+  </si>
+  <si>
+    <t>25.8000</t>
+  </si>
+  <si>
+    <t>0.0737</t>
+  </si>
+  <si>
+    <t>0.8969</t>
+  </si>
+  <si>
+    <t>1750.0300</t>
+  </si>
+  <si>
+    <t>0.6666</t>
+  </si>
+  <si>
+    <t>63.9300</t>
+  </si>
+  <si>
+    <t>10.6683</t>
+  </si>
+  <si>
+    <t>10.5687</t>
+  </si>
+  <si>
+    <t>1.3698</t>
+  </si>
+  <si>
+    <t>1.0695</t>
+  </si>
+  <si>
+    <t>7.2687</t>
+  </si>
+  <si>
+    <t>83.4950</t>
+  </si>
+  <si>
+    <t>0.6090</t>
+  </si>
+  <si>
+    <t>6.9748</t>
+  </si>
+  <si>
+    <t>2300.5700</t>
+  </si>
+  <si>
+    <t>71.1100</t>
+  </si>
+  <si>
+    <t>36.9300</t>
   </si>
   <si>
     <t>58.1366</t>
   </si>
   <si>
-    <t>18.2353</t>
-  </si>
-  <si>
-    <t>47.1800</t>
-  </si>
-  <si>
-    <t>4.7130</t>
+    <t>18.1522</t>
+  </si>
+  <si>
+    <t>47.5400</t>
+  </si>
+  <si>
+    <t>4.7210</t>
   </si>
   <si>
     <t>0.3980</t>
   </si>
   <si>
-    <t>48.4500</t>
-  </si>
-  <si>
-    <t>5.4521</t>
-  </si>
-  <si>
-    <t>2640.0000</t>
-  </si>
-  <si>
-    <t>87.0200</t>
-  </si>
-  <si>
-    <t>129.0000</t>
+    <t>48.0800</t>
+  </si>
+  <si>
+    <t>5.5245</t>
+  </si>
+  <si>
+    <t>2615.0000</t>
+  </si>
+  <si>
+    <t>86.5200</t>
+  </si>
+  <si>
+    <t>129.5000</t>
   </si>
   <si>
     <t>2.2175</t>
@@ -397,13 +385,13 @@
     <t>7.4372</t>
   </si>
   <si>
-    <t>7.8094</t>
-  </si>
-  <si>
-    <t>909.5000</t>
-  </si>
-  <si>
-    <t>622.1700</t>
+    <t>7.8078</t>
+  </si>
+  <si>
+    <t>911.5000</t>
+  </si>
+  <si>
+    <t>616.2900</t>
   </si>
   <si>
     <t>Mid Rate</t>
@@ -412,97 +400,97 @@
     <t>1 .0000</t>
   </si>
   <si>
-    <t>1 8.23325</t>
-  </si>
-  <si>
-    <t>1 .26840</t>
-  </si>
-  <si>
-    <t>1 59.79500</t>
-  </si>
-  <si>
-    <t>2 5.83850</t>
-  </si>
-  <si>
-    <t>0 .07370</t>
-  </si>
-  <si>
-    <t>0 .89535</t>
-  </si>
-  <si>
-    <t>1 ,733.86500</t>
-  </si>
-  <si>
-    <t>0 .66820</t>
-  </si>
-  <si>
-    <t>1 .31682</t>
-  </si>
-  <si>
-    <t>6 3.60000</t>
-  </si>
-  <si>
-    <t>1 0.61665</t>
-  </si>
-  <si>
-    <t>1 0.51695</t>
-  </si>
-  <si>
-    <t>1 .36590</t>
-  </si>
-  <si>
-    <t>1 .07060</t>
-  </si>
-  <si>
-    <t>7 .26625</t>
-  </si>
-  <si>
-    <t>8 3.49250</t>
-  </si>
-  <si>
-    <t>0 .61170</t>
-  </si>
-  <si>
-    <t>6 .96770</t>
-  </si>
-  <si>
-    <t>2,315.87500</t>
-  </si>
-  <si>
-    <t>7 0.66000</t>
-  </si>
-  <si>
-    <t>3 6.80000</t>
-  </si>
-  <si>
-    <t>5 7.71405</t>
-  </si>
-  <si>
-    <t>1 8.23250</t>
-  </si>
-  <si>
-    <t>4 7.03000</t>
-  </si>
-  <si>
-    <t>4 .71100</t>
+    <t>1 8.14845</t>
+  </si>
+  <si>
+    <t>1 .26345</t>
+  </si>
+  <si>
+    <t>1 60.40000</t>
+  </si>
+  <si>
+    <t>2 5.77500</t>
+  </si>
+  <si>
+    <t>0 .07360</t>
+  </si>
+  <si>
+    <t>0 .89685</t>
+  </si>
+  <si>
+    <t>1 ,733.38000</t>
+  </si>
+  <si>
+    <t>0 .66650</t>
+  </si>
+  <si>
+    <t>1 .31437</t>
+  </si>
+  <si>
+    <t>6 3.62000</t>
+  </si>
+  <si>
+    <t>1 0.66595</t>
+  </si>
+  <si>
+    <t>1 0.56660</t>
+  </si>
+  <si>
+    <t>1 .36955</t>
+  </si>
+  <si>
+    <t>1 .06945</t>
+  </si>
+  <si>
+    <t>7 .26865</t>
+  </si>
+  <si>
+    <t>8 3.49000</t>
+  </si>
+  <si>
+    <t>0 .60895</t>
+  </si>
+  <si>
+    <t>6 .97445</t>
+  </si>
+  <si>
+    <t>2,300.31500</t>
+  </si>
+  <si>
+    <t>7 1.01000</t>
+  </si>
+  <si>
+    <t>3 6.92000</t>
+  </si>
+  <si>
+    <t>5 7.71895</t>
+  </si>
+  <si>
+    <t>1 8.14895</t>
+  </si>
+  <si>
+    <t>4 7.39000</t>
+  </si>
+  <si>
+    <t>4 .71900</t>
   </si>
   <si>
     <t>0 .39775</t>
   </si>
   <si>
-    <t>4 8.40000</t>
-  </si>
-  <si>
-    <t>5 .45160</t>
-  </si>
-  <si>
-    <t>2,635.00000</t>
-  </si>
-  <si>
-    <t>8 7.01000</t>
-  </si>
-  <si>
-    <t>1 28.50000</t>
+    <t>4 8.03000</t>
+  </si>
+  <si>
+    <t>5 .52425</t>
+  </si>
+  <si>
+    <t>2,610.00000</t>
+  </si>
+  <si>
+    <t>8 6.51000</t>
+  </si>
+  <si>
+    <t>1 29.00000</t>
   </si>
   <si>
     <t>2 .21625</t>
@@ -517,358 +505,358 @@
     <t>7 .43295</t>
   </si>
   <si>
-    <t>7 .77945</t>
-  </si>
-  <si>
-    <t>9 09.25000</t>
-  </si>
-  <si>
-    <t>6 17.38000</t>
-  </si>
-  <si>
-    <t>ZiG</t>
-  </si>
-  <si>
-    <t>13.261</t>
-  </si>
-  <si>
-    <t>1.3075</t>
-  </si>
-  <si>
-    <t>16.8176</t>
-  </si>
-  <si>
-    <t>11.4618</t>
-  </si>
-  <si>
-    <t>1.8414</t>
-  </si>
-  <si>
-    <t>0.9760</t>
-  </si>
-  <si>
-    <t>11.8725</t>
-  </si>
-  <si>
-    <t>123.1425</t>
-  </si>
-  <si>
-    <t>8.8596</t>
-  </si>
-  <si>
-    <t>17.9100</t>
-  </si>
-  <si>
-    <t>4.5376</t>
-  </si>
-  <si>
-    <t>0.7613</t>
-  </si>
-  <si>
-    <t>0.7542</t>
-  </si>
-  <si>
-    <t>0.0979</t>
-  </si>
-  <si>
-    <t>14.1945</t>
-  </si>
-  <si>
-    <t>0.5212</t>
-  </si>
-  <si>
-    <t>5.9886</t>
-  </si>
-  <si>
-    <t>8.1091</t>
-  </si>
-  <si>
-    <t>0.4997</t>
-  </si>
-  <si>
-    <t>30707.5031</t>
-  </si>
-  <si>
-    <t>5.0613</t>
-  </si>
-  <si>
-    <t>2.6389</t>
-  </si>
-  <si>
-    <t>4.1095</t>
-  </si>
-  <si>
-    <t>1.3076</t>
-  </si>
-  <si>
-    <t>3.3627</t>
-  </si>
-  <si>
-    <t>0.3377</t>
-  </si>
-  <si>
-    <t>0.0285</t>
-  </si>
-  <si>
-    <t>3.4681</t>
-  </si>
-  <si>
-    <t>0.3910</t>
-  </si>
-  <si>
-    <t>188.6521</t>
-  </si>
-  <si>
-    <t>6.2405</t>
-  </si>
-  <si>
-    <t>9.1815</t>
-  </si>
-  <si>
-    <t>0.1588</t>
-  </si>
-  <si>
-    <t>13.5162</t>
-  </si>
-  <si>
-    <t>157.2935</t>
-  </si>
-  <si>
-    <t>0.5328</t>
-  </si>
-  <si>
-    <t>0.5558</t>
-  </si>
-  <si>
-    <t>65.2033</t>
-  </si>
-  <si>
-    <t>43.9416</t>
-  </si>
-  <si>
-    <t>13.941</t>
-  </si>
-  <si>
-    <t>1.3753</t>
-  </si>
-  <si>
-    <t>17.6855</t>
-  </si>
-  <si>
-    <t>12.0503</t>
-  </si>
-  <si>
-    <t>1.9610</t>
-  </si>
-  <si>
-    <t>1.0288</t>
-  </si>
-  <si>
-    <t>12.4827</t>
-  </si>
-  <si>
-    <t>132.0413</t>
-  </si>
-  <si>
-    <t>9.3167</t>
-  </si>
-  <si>
-    <t>4.8216</t>
-  </si>
-  <si>
-    <t>0.8008</t>
-  </si>
-  <si>
-    <t>0.7932</t>
-  </si>
-  <si>
-    <t>0.1030</t>
-  </si>
-  <si>
-    <t>14.9280</t>
-  </si>
-  <si>
-    <t>0.5479</t>
-  </si>
-  <si>
-    <t>6.2964</t>
-  </si>
-  <si>
-    <t>8.5304</t>
-  </si>
-  <si>
-    <t>0.5254</t>
-  </si>
-  <si>
-    <t>32289.0986</t>
-  </si>
-  <si>
-    <t>5.3359</t>
-  </si>
-  <si>
-    <t>2.7758</t>
-  </si>
-  <si>
-    <t>4.3840</t>
-  </si>
-  <si>
-    <t>1.3751</t>
-  </si>
-  <si>
-    <t>3.5578</t>
-  </si>
-  <si>
-    <t>0.3554</t>
-  </si>
-  <si>
-    <t>0.0300</t>
-  </si>
-  <si>
-    <t>3.6535</t>
-  </si>
-  <si>
-    <t>0.4111</t>
-  </si>
-  <si>
-    <t>199.0800</t>
-  </si>
-  <si>
-    <t>6.5620</t>
-  </si>
-  <si>
-    <t>9.7277</t>
-  </si>
-  <si>
-    <t>0.1672</t>
-  </si>
-  <si>
-    <t>14.2259</t>
-  </si>
-  <si>
-    <t>165.5470</t>
-  </si>
-  <si>
-    <t>0.5608</t>
-  </si>
-  <si>
-    <t>0.5888</t>
-  </si>
-  <si>
-    <t>68.5845</t>
-  </si>
-  <si>
-    <t>46.9172</t>
-  </si>
-  <si>
-    <t>13.6010</t>
-  </si>
-  <si>
-    <t>1.3414</t>
-  </si>
-  <si>
-    <t>17.2516</t>
-  </si>
-  <si>
-    <t>11.7561</t>
-  </si>
-  <si>
-    <t>1.9012</t>
-  </si>
-  <si>
-    <t>1.0024</t>
-  </si>
-  <si>
-    <t>12.1776</t>
-  </si>
-  <si>
-    <t>127.5919</t>
-  </si>
-  <si>
-    <t>9.0882</t>
-  </si>
-  <si>
-    <t>4.6796</t>
-  </si>
-  <si>
-    <t>0.7811</t>
-  </si>
-  <si>
-    <t>0.7737</t>
-  </si>
-  <si>
-    <t>0.1005</t>
-  </si>
-  <si>
-    <t>14.5613</t>
-  </si>
-  <si>
-    <t>0.5346</t>
-  </si>
-  <si>
-    <t>6.1425</t>
-  </si>
-  <si>
-    <t>8.3198</t>
-  </si>
-  <si>
-    <t>0.5126</t>
-  </si>
-  <si>
-    <t>31498.3008</t>
-  </si>
-  <si>
-    <t>5.1986</t>
-  </si>
-  <si>
-    <t>2.7074</t>
-  </si>
-  <si>
-    <t>4.2468</t>
-  </si>
-  <si>
-    <t>3.4603</t>
-  </si>
-  <si>
-    <t>0.3466</t>
-  </si>
-  <si>
-    <t>0.0293</t>
-  </si>
-  <si>
-    <t>3.5608</t>
-  </si>
-  <si>
-    <t>0.4011</t>
-  </si>
-  <si>
-    <t>193.8661</t>
-  </si>
-  <si>
-    <t>6.4013</t>
-  </si>
-  <si>
-    <t>9.4546</t>
-  </si>
-  <si>
-    <t>0.1630</t>
-  </si>
-  <si>
-    <t>13.8711</t>
-  </si>
-  <si>
-    <t>161.4203</t>
-  </si>
-  <si>
-    <t>0.5468</t>
-  </si>
-  <si>
-    <t>0.5723</t>
-  </si>
-  <si>
-    <t>66.8939</t>
-  </si>
-  <si>
-    <t>45.4294</t>
+    <t>7 .77865</t>
+  </si>
+  <si>
+    <t>9 11.00000</t>
+  </si>
+  <si>
+    <t>6 15.00000</t>
+  </si>
+  <si>
+    <t>ZWG</t>
+  </si>
+  <si>
+    <t>13.3394</t>
+  </si>
+  <si>
+    <t>1.2938</t>
+  </si>
+  <si>
+    <t>16.8529</t>
+  </si>
+  <si>
+    <t>11.4373</t>
+  </si>
+  <si>
+    <t>1.8362</t>
+  </si>
+  <si>
+    <t>0.9804</t>
+  </si>
+  <si>
+    <t>11.9627</t>
+  </si>
+  <si>
+    <t>122.4189</t>
+  </si>
+  <si>
+    <t>8.8893</t>
+  </si>
+  <si>
+    <t>17.9824</t>
+  </si>
+  <si>
+    <t>4.5145</t>
+  </si>
+  <si>
+    <t>0.7604</t>
+  </si>
+  <si>
+    <t>0.7533</t>
+  </si>
+  <si>
+    <t>0.0976</t>
+  </si>
+  <si>
+    <t>14.2651</t>
+  </si>
+  <si>
+    <t>0.5183</t>
+  </si>
+  <si>
+    <t>5.9532</t>
+  </si>
+  <si>
+    <t>8.1223</t>
+  </si>
+  <si>
+    <t>0.4973</t>
+  </si>
+  <si>
+    <t>30681.4203</t>
+  </si>
+  <si>
+    <t>5.0565</t>
+  </si>
+  <si>
+    <t>2.6320</t>
+  </si>
+  <si>
+    <t>4.0861</t>
+  </si>
+  <si>
+    <t>1.2939</t>
+  </si>
+  <si>
+    <t>3.3686</t>
+  </si>
+  <si>
+    <t>0.3363</t>
+  </si>
+  <si>
+    <t>0.0283</t>
+  </si>
+  <si>
+    <t>3.4214</t>
+  </si>
+  <si>
+    <t>0.3939</t>
+  </si>
+  <si>
+    <t>185.7609</t>
+  </si>
+  <si>
+    <t>6.1682</t>
+  </si>
+  <si>
+    <t>9.1632</t>
+  </si>
+  <si>
+    <t>0.1579</t>
+  </si>
+  <si>
+    <t>13.4368</t>
+  </si>
+  <si>
+    <t>156.3693</t>
+  </si>
+  <si>
+    <t>0.5297</t>
+  </si>
+  <si>
+    <t>0.5526</t>
+  </si>
+  <si>
+    <t>64.9271</t>
+  </si>
+  <si>
+    <t>43.7632</t>
+  </si>
+  <si>
+    <t>14.0234</t>
+  </si>
+  <si>
+    <t>1.3608</t>
+  </si>
+  <si>
+    <t>17.7185</t>
+  </si>
+  <si>
+    <t>12.0252</t>
+  </si>
+  <si>
+    <t>1.9341</t>
+  </si>
+  <si>
+    <t>1.0335</t>
+  </si>
+  <si>
+    <t>12.5775</t>
+  </si>
+  <si>
+    <t>131.1925</t>
+  </si>
+  <si>
+    <t>9.3479</t>
+  </si>
+  <si>
+    <t>4.7925</t>
+  </si>
+  <si>
+    <t>0.7997</t>
+  </si>
+  <si>
+    <t>0.7922</t>
+  </si>
+  <si>
+    <t>0.1026</t>
+  </si>
+  <si>
+    <t>14.9980</t>
+  </si>
+  <si>
+    <t>0.5449</t>
+  </si>
+  <si>
+    <t>6.2592</t>
+  </si>
+  <si>
+    <t>8.5402</t>
+  </si>
+  <si>
+    <t>0.5228</t>
+  </si>
+  <si>
+    <t>32261.8133</t>
+  </si>
+  <si>
+    <t>5.3308</t>
+  </si>
+  <si>
+    <t>2.7684</t>
+  </si>
+  <si>
+    <t>4.3582</t>
+  </si>
+  <si>
+    <t>1.3607</t>
+  </si>
+  <si>
+    <t>3.5638</t>
+  </si>
+  <si>
+    <t>0.3539</t>
+  </si>
+  <si>
+    <t>0.0298</t>
+  </si>
+  <si>
+    <t>3.6043</t>
+  </si>
+  <si>
+    <t>0.4141</t>
+  </si>
+  <si>
+    <t>196.0358</t>
+  </si>
+  <si>
+    <t>6.4860</t>
+  </si>
+  <si>
+    <t>9.7080</t>
+  </si>
+  <si>
+    <t>0.1662</t>
+  </si>
+  <si>
+    <t>14.1423</t>
+  </si>
+  <si>
+    <t>164.5741</t>
+  </si>
+  <si>
+    <t>0.5575</t>
+  </si>
+  <si>
+    <t>0.5853</t>
+  </si>
+  <si>
+    <t>68.3314</t>
+  </si>
+  <si>
+    <t>46.2007</t>
+  </si>
+  <si>
+    <t>13.6814</t>
+  </si>
+  <si>
+    <t>1.3273</t>
+  </si>
+  <si>
+    <t>17.2857</t>
+  </si>
+  <si>
+    <t>11.7313</t>
+  </si>
+  <si>
+    <t>1.8852</t>
+  </si>
+  <si>
+    <t>1.0070</t>
+  </si>
+  <si>
+    <t>12.2701</t>
+  </si>
+  <si>
+    <t>126.8057</t>
+  </si>
+  <si>
+    <t>9.1186</t>
+  </si>
+  <si>
+    <t>4.6535</t>
+  </si>
+  <si>
+    <t>0.7801</t>
+  </si>
+  <si>
+    <t>0.7728</t>
+  </si>
+  <si>
+    <t>0.1001</t>
+  </si>
+  <si>
+    <t>14.6316</t>
+  </si>
+  <si>
+    <t>0.5316</t>
+  </si>
+  <si>
+    <t>6.1062</t>
+  </si>
+  <si>
+    <t>8.3313</t>
+  </si>
+  <si>
+    <t>0.5101</t>
+  </si>
+  <si>
+    <t>31471.6168</t>
+  </si>
+  <si>
+    <t>5.1937</t>
+  </si>
+  <si>
+    <t>2.7002</t>
+  </si>
+  <si>
+    <t>4.2222</t>
+  </si>
+  <si>
+    <t>3.4662</t>
+  </si>
+  <si>
+    <t>0.3451</t>
+  </si>
+  <si>
+    <t>0.0291</t>
+  </si>
+  <si>
+    <t>3.5129</t>
+  </si>
+  <si>
+    <t>0.4040</t>
+  </si>
+  <si>
+    <t>190.8984</t>
+  </si>
+  <si>
+    <t>6.3271</t>
+  </si>
+  <si>
+    <t>9.4356</t>
+  </si>
+  <si>
+    <t>0.1621</t>
+  </si>
+  <si>
+    <t>13.7896</t>
+  </si>
+  <si>
+    <t>160.4717</t>
+  </si>
+  <si>
+    <t>0.5436</t>
+  </si>
+  <si>
+    <t>0.5690</t>
+  </si>
+  <si>
+    <t>66.6293</t>
+  </si>
+  <si>
+    <t>44.9820</t>
   </si>
 </sst>
 </file>
@@ -1260,985 +1248,985 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
